--- a/data/trans_camb/P16A97-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A97-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 17,9</t>
+          <t>4,03; 17,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,52; -2,45</t>
+          <t>-9,61; -2,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 22,49</t>
+          <t>1,49; 21,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,51; -9,19</t>
+          <t>-21,71; -8,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 17,04</t>
+          <t>5,86; 17,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,97</t>
+          <t>-12,35; -5,73</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,48; 645,44</t>
+          <t>38,84; 634,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 222,28</t>
+          <t>6,52; 231,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,04; 256,33</t>
+          <t>51,01; 269,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 16,35</t>
+          <t>6,09; 16,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 11,3</t>
+          <t>1,69; 11,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; -3,16</t>
+          <t>-8,52; -2,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,33; 29,59</t>
+          <t>15,44; 30,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 17,36</t>
+          <t>4,13; 17,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,45; -5,91</t>
+          <t>-13,14; -5,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,47; 20,2</t>
+          <t>11,57; 19,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 12,02</t>
+          <t>4,18; 12,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -4,84</t>
+          <t>-9,54; -4,94</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,83; 467,89</t>
+          <t>76,5; 509,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,41; 341,34</t>
+          <t>20,94; 348,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>109,89; 444,06</t>
+          <t>122,68; 478,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,06; 273,17</t>
+          <t>35,67; 277,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>131,11; 363,2</t>
+          <t>133,82; 370,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,96; 224,89</t>
+          <t>48,92; 226,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 21,52</t>
+          <t>8,6; 21,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 15,46</t>
+          <t>4,54; 16,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -2,75</t>
+          <t>-8,91; -3,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,82; 35,5</t>
+          <t>15,97; 35,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 13,67</t>
+          <t>-5,01; 13,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,64; -10,34</t>
+          <t>-22,13; -10,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,15; 25,3</t>
+          <t>14,07; 25,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,73</t>
+          <t>3,34; 13,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -6,65</t>
+          <t>-12,69; -6,74</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>93,72; 627,62</t>
+          <t>108,12; 628,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,98; 427,16</t>
+          <t>54,95; 461,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>82,41; 325,06</t>
+          <t>83,43; 343,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 127,24</t>
+          <t>-26,9; 111,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>122,45; 335,19</t>
+          <t>121,9; 352,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,96; 180,06</t>
+          <t>29,61; 181,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,88; 21,64</t>
+          <t>11,94; 21,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,67; 23,42</t>
+          <t>10,77; 23,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,55; -2,06</t>
+          <t>-7,32; -2,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,98; 39,48</t>
+          <t>23,22; 38,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,97; 37,48</t>
+          <t>19,01; 36,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,66; -9,24</t>
+          <t>-19,25; -9,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,83; 27,45</t>
+          <t>18,24; 27,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,93; 28,43</t>
+          <t>16,34; 28,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,45; -6,1</t>
+          <t>-11,19; -6,0</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>168,6; 920,43</t>
+          <t>176,46; 946,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>158,01; 1032,91</t>
+          <t>158,97; 912,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>133,28; 403,0</t>
+          <t>132,21; 414,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>98,21; 345,51</t>
+          <t>109,87; 367,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>164,57; 441,47</t>
+          <t>171,31; 423,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>153,15; 429,39</t>
+          <t>155,37; 432,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,09; 18,67</t>
+          <t>2,98; 19,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 7,89</t>
+          <t>-3,96; 8,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -2,83</t>
+          <t>-10,68; -2,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,77; 37,95</t>
+          <t>9,28; 37,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 16,62</t>
+          <t>-6,96; 17,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-28,35; -11,08</t>
+          <t>-28,76; -11,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,34; 22,25</t>
+          <t>7,28; 21,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 9,84</t>
+          <t>-3,16; 9,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,54; -7,75</t>
+          <t>-16,49; -7,79</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,17; 587,34</t>
+          <t>17,19; 598,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,32; 260,76</t>
+          <t>-48,37; 307,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>37,36; 292,93</t>
+          <t>35,88; 284,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 128,53</t>
+          <t>-27,22; 130,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>43,94; 265,02</t>
+          <t>48,44; 252,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 107,67</t>
+          <t>-23,34; 103,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,71; 27,49</t>
+          <t>12,96; 27,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,8; 20,28</t>
+          <t>6,31; 19,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,79; -2,3</t>
+          <t>-8,85; -2,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>23,17; 44,08</t>
+          <t>24,15; 44,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,83; 31,49</t>
+          <t>11,74; 31,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,54; -5,0</t>
+          <t>-16,52; -4,8</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>19,59; 32,61</t>
+          <t>19,86; 32,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>11,08; 22,83</t>
+          <t>11,91; 23,31</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,2; -4,06</t>
+          <t>-10,03; -4,07</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>148,02; 1004,51</t>
+          <t>161,63; 1115,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>71,97; 766,69</t>
+          <t>71,02; 791,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>153,14; 790,19</t>
+          <t>152,9; 787,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>84,06; 543,87</t>
+          <t>75,95; 565,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>199,44; 710,4</t>
+          <t>215,55; 748,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>120,3; 514,16</t>
+          <t>119,65; 520,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>12,12; 20,75</t>
+          <t>12,03; 21,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,63</t>
+          <t>1,01; 7,85</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,8; -1,1</t>
+          <t>-5,18; -1,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>25,61; 38,16</t>
+          <t>26,96; 38,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,49; 16,17</t>
+          <t>7,11; 16,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,73; -3,92</t>
+          <t>-9,76; -4,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,69; 28,04</t>
+          <t>20,58; 28,16</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,64; 10,55</t>
+          <t>4,86; 10,61</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -2,86</t>
+          <t>-5,98; -2,95</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>290,41; 1675,6</t>
+          <t>261,86; 1546,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>14,52; 526,11</t>
+          <t>12,09; 491,23</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>282,85; 892,75</t>
+          <t>298,44; 914,72</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>68,37; 367,1</t>
+          <t>79,38; 362,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>377,7; 894,49</t>
+          <t>364,48; 889,77</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>77,54; 312,82</t>
+          <t>89,35; 334,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>5,06; 12,12</t>
+          <t>5,14; 12,38</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,72</t>
+          <t>5,66; 13,15</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,76; -2,26</t>
+          <t>-6,15; -2,35</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,27; 20,41</t>
+          <t>10,56; 20,74</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>10,56; 20,57</t>
+          <t>10,44; 20,68</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-9,53; -4,27</t>
+          <t>-9,44; -4,31</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>8,66; 14,67</t>
+          <t>8,62; 14,39</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>8,89; 15,31</t>
+          <t>8,88; 15,21</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,77; -3,61</t>
+          <t>-6,83; -3,78</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2303,12 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>96,48; 457,95</t>
+          <t>92,46; 468,88</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>102,72; 502,73</t>
+          <t>109,09; 525,7</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>113,91; 432,65</t>
+          <t>114,09; 460,02</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>120,72; 425,61</t>
+          <t>117,36; 433,07</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>134,35; 379,49</t>
+          <t>134,92; 356,24</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>135,16; 380,75</t>
+          <t>142,05; 384,54</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>11,46; 15,22</t>
+          <t>11,35; 15,45</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,29</t>
+          <t>6,74; 10,38</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -3,45</t>
+          <t>-5,21; -3,4</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>22,37; 27,99</t>
+          <t>21,66; 27,87</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>11,11; 16,2</t>
+          <t>11,02; 16,55</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -8,72</t>
+          <t>-11,79; -8,48</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>16,89; 20,22</t>
+          <t>16,91; 20,24</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,52; 12,64</t>
+          <t>9,37; 12,53</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-7,71; -6,1</t>
+          <t>-7,66; -6,02</t>
         </is>
       </c>
     </row>
@@ -2519,12 +2519,12 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>227,6; 420,37</t>
+          <t>232,26; 429,43</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>135,27; 295,8</t>
+          <t>134,83; 282,14</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>195,99; 306,98</t>
+          <t>194,7; 318,25</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>100,39; 180,62</t>
+          <t>95,79; 183,11</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>225,26; 321,02</t>
+          <t>226,33; 324,57</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>124,4; 198,62</t>
+          <t>125,23; 198,79</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">

--- a/data/trans_camb/P16A97-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A97-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 17,97</t>
+          <t>4,42; 17,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -2,23</t>
+          <t>-9,69; -2,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 21,54</t>
+          <t>0,71; 21,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -8,85</t>
+          <t>-22,05; -8,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 17,23</t>
+          <t>4,95; 17,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,35; -5,73</t>
+          <t>-12,69; -5,76</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,84; 634,19</t>
+          <t>46,79; 613,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 231,6</t>
+          <t>1,56; 208,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,01; 269,83</t>
+          <t>40,04; 263,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 16,64</t>
+          <t>5,68; 15,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 11,23</t>
+          <t>2,04; 11,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -2,92</t>
+          <t>-8,52; -3,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,44; 30,92</t>
+          <t>15,38; 29,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 17,78</t>
+          <t>4,21; 17,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -5,74</t>
+          <t>-13,4; -6,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,57; 19,93</t>
+          <t>11,64; 20,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,06</t>
+          <t>4,55; 12,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -4,94</t>
+          <t>-9,28; -4,8</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,5; 509,21</t>
+          <t>75,28; 500,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,94; 348,81</t>
+          <t>22,3; 341,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>122,68; 478,23</t>
+          <t>124,17; 437,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,67; 277,39</t>
+          <t>29,91; 246,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>133,82; 370,94</t>
+          <t>132,44; 390,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,92; 226,25</t>
+          <t>51,66; 224,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,6; 21,85</t>
+          <t>7,65; 20,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 16,09</t>
+          <t>4,24; 15,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -3,08</t>
+          <t>-8,9; -2,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,97; 35,7</t>
+          <t>14,93; 36,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 13,19</t>
+          <t>-3,7; 13,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,13; -10,0</t>
+          <t>-21,46; -10,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,07; 25,88</t>
+          <t>13,8; 25,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 13,04</t>
+          <t>3,45; 12,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -6,74</t>
+          <t>-12,56; -6,9</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>108,12; 628,54</t>
+          <t>90,91; 631,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>54,95; 461,51</t>
+          <t>43,94; 470,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>83,43; 343,64</t>
+          <t>71,39; 327,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 111,46</t>
+          <t>-19,98; 115,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>121,9; 352,44</t>
+          <t>120,23; 342,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,61; 181,54</t>
+          <t>29,02; 174,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,94; 21,5</t>
+          <t>12,28; 22,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,77; 23,37</t>
+          <t>10,68; 23,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -2,08</t>
+          <t>-7,8; -2,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,22; 38,55</t>
+          <t>23,18; 38,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,01; 36,55</t>
+          <t>18,35; 37,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,25; -9,5</t>
+          <t>-19,28; -9,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,24; 27,34</t>
+          <t>18,46; 27,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,34; 28,24</t>
+          <t>16,8; 28,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -6,0</t>
+          <t>-11,11; -6,03</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>176,46; 946,97</t>
+          <t>180,95; 983,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>158,97; 912,02</t>
+          <t>157,34; 944,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>132,21; 414,62</t>
+          <t>124,78; 394,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>109,87; 367,55</t>
+          <t>106,19; 354,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>171,31; 423,81</t>
+          <t>170,06; 405,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>155,37; 432,34</t>
+          <t>162,29; 425,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 19,26</t>
+          <t>2,75; 18,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 8,54</t>
+          <t>-3,7; 8,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -2,9</t>
+          <t>-11,42; -2,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,28; 37,42</t>
+          <t>9,24; 38,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 17,2</t>
+          <t>-6,67; 17,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-28,76; -11,27</t>
+          <t>-28,05; -11,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,28; 21,6</t>
+          <t>7,35; 21,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 9,0</t>
+          <t>-3,68; 9,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,49; -7,79</t>
+          <t>-17,21; -8,13</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>17,19; 598,21</t>
+          <t>15,94; 549,26</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 307,93</t>
+          <t>-47,42; 298,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>35,88; 284,94</t>
+          <t>36,84; 312,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 130,32</t>
+          <t>-29,45; 144,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>48,44; 252,72</t>
+          <t>49,7; 267,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 103,5</t>
+          <t>-23,72; 115,79</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>12,96; 27,92</t>
+          <t>12,1; 27,15</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,31; 19,92</t>
+          <t>6,65; 19,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -2,33</t>
+          <t>-9,23; -2,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>24,15; 44,93</t>
+          <t>23,19; 45,69</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,74; 31,52</t>
+          <t>11,36; 31,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,52; -4,8</t>
+          <t>-16,37; -4,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>19,86; 32,93</t>
+          <t>19,54; 33,44</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>11,91; 23,31</t>
+          <t>11,23; 23,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -4,07</t>
+          <t>-9,95; -4,1</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>161,63; 1115,97</t>
+          <t>162,87; 1050,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>71,02; 791,0</t>
+          <t>79,58; 700,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>152,9; 787,19</t>
+          <t>159,2; 888,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>75,95; 565,89</t>
+          <t>70,95; 661,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>215,55; 748,31</t>
+          <t>211,23; 730,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>119,65; 520,93</t>
+          <t>118,39; 482,33</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>12,03; 21,36</t>
+          <t>11,77; 21,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,01; 7,85</t>
+          <t>0,45; 7,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -1,31</t>
+          <t>-5,04; -1,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>26,96; 38,91</t>
+          <t>26,86; 38,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,11; 16,87</t>
+          <t>6,94; 16,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,76; -4,09</t>
+          <t>-9,97; -4,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,58; 28,16</t>
+          <t>20,55; 28,33</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,86; 10,61</t>
+          <t>5,0; 10,92</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,98; -2,95</t>
+          <t>-6,09; -3,05</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>261,86; 1546,06</t>
+          <t>271,74; 1669,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>12,09; 491,23</t>
+          <t>-3,15; 484,52</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>298,44; 914,72</t>
+          <t>297,27; 835,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>79,38; 362,37</t>
+          <t>74,32; 355,61</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>364,48; 889,77</t>
+          <t>360,62; 878,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>89,35; 334,02</t>
+          <t>80,96; 324,84</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>5,14; 12,38</t>
+          <t>5,16; 11,78</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5,66; 13,15</t>
+          <t>5,78; 13,24</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,15; -2,35</t>
+          <t>-5,81; -2,23</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,56; 20,74</t>
+          <t>10,38; 20,06</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>10,44; 20,68</t>
+          <t>10,52; 20,71</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -4,31</t>
+          <t>-9,76; -4,33</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>8,62; 14,39</t>
+          <t>8,75; 14,27</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>8,88; 15,21</t>
+          <t>8,92; 15,4</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -3,78</t>
+          <t>-6,65; -3,64</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2303,12 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>92,46; 468,88</t>
+          <t>84,8; 425,1</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>109,09; 525,7</t>
+          <t>107,4; 506,72</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>114,09; 460,02</t>
+          <t>114,56; 429,56</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>117,36; 433,07</t>
+          <t>112,53; 433,23</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>134,92; 356,24</t>
+          <t>136,4; 350,01</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>142,05; 384,54</t>
+          <t>136,46; 378,32</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>11,35; 15,45</t>
+          <t>11,37; 15,27</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,38</t>
+          <t>6,68; 10,28</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -2428,32 +2428,32 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>21,66; 27,87</t>
+          <t>22,22; 27,94</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>11,02; 16,55</t>
+          <t>11,37; 16,49</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -8,48</t>
+          <t>-11,67; -8,73</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>16,91; 20,24</t>
+          <t>16,77; 20,26</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,37; 12,53</t>
+          <t>9,45; 12,59</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -6,02</t>
+          <t>-7,74; -6,02</t>
         </is>
       </c>
     </row>
@@ -2519,12 +2519,12 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>232,26; 429,43</t>
+          <t>225,48; 413,62</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>134,83; 282,14</t>
+          <t>133,97; 279,89</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>194,7; 318,25</t>
+          <t>196,61; 313,53</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>95,79; 183,11</t>
+          <t>101,44; 181,54</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>226,33; 324,57</t>
+          <t>219,64; 325,69</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>125,23; 198,79</t>
+          <t>126,28; 201,3</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
